--- a/00 - Documentation/Etat_art/tableau_recap_etat_art.xlsx
+++ b/00 - Documentation/Etat_art/tableau_recap_etat_art.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Article</t>
   </si>
@@ -43,6 +43,10 @@
   </si>
   <si>
     <t>Commentaire</t>
+  </si>
+  <si>
+    <t>Development of a skateboarding trick classifier using accelerometry
+and machine learning</t>
   </si>
 </sst>
 </file>
@@ -101,13 +105,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,14 +405,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="5" customWidth="1"/>
     <col min="3" max="3" width="33.21875" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="22.88671875" customWidth="1"/>
@@ -413,154 +428,158 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2017</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/00 - Documentation/Etat_art/tableau_recap_etat_art.xlsx
+++ b/00 - Documentation/Etat_art/tableau_recap_etat_art.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BE5969-9D2C-4A4B-8ACA-D84F87617C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Article</t>
   </si>
@@ -43,12 +44,30 @@
   </si>
   <si>
     <t>Commentaire</t>
+  </si>
+  <si>
+    <t>IMU_Skate_recognition</t>
+  </si>
+  <si>
+    <t>Analyse de classification des figures basée sur les données de mouvement des unités de mesure inertielles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statistiques : mean ; variance ; asymétrie ; kurtosis. Fréquence : Freq dominante et fenêtre. Features calculés sur les 6 signaux + norme accélération et norme gyro. </t>
+  </si>
+  <si>
+    <t>Détection : Signal accélération segmentée en fenêtres d'1S avec overlap de 0.5S. Calcul de l'énergie pour détecter l'atterrissage. Selection par seuil basé sur les Ollie. Une fois qu'on détecte les temps d'atterrissage, on conserve 1s avant et 0,5s après. Pour les résultats, mesure de SENSIBILITE et SPECIFICITE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un algo de détection de présence de figures (P = 94.2%) et 4 méthodes de classification utilisées (P = 97.8%)Preprocessing --&gt; axes x et z sont inversés pour goofy / regular. Pour la classification, ils n'ont considéré que les signaux où ils savaient qu'il y avait une figure. Les Faux Positifs de la détection n'ont pas été considéré. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algos utilisés : NB (meilleur résultat) ; PART ; SVM (meilleur résultat) ; k-NN. SVM et k-NN ont eu besoin d'optimisation des paramètres gamma, C et du nb de voisin </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -101,13 +120,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,33 +411,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" customWidth="1"/>
-    <col min="3" max="3" width="33.21875" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="22.88671875" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="28.08984375" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="33.1796875" customWidth="1"/>
+    <col min="4" max="4" width="37.08984375" customWidth="1"/>
+    <col min="5" max="5" width="32.08984375" customWidth="1"/>
+    <col min="6" max="6" width="21.36328125" customWidth="1"/>
+    <col min="7" max="7" width="11.08984375" customWidth="1"/>
+    <col min="8" max="8" width="13.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -436,16 +460,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="232" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2015</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -454,7 +492,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -463,7 +501,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -472,7 +510,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -481,7 +519,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -490,7 +528,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -499,7 +537,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -508,7 +546,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -517,7 +555,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -526,7 +564,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -535,7 +573,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -544,7 +582,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -553,7 +591,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>

--- a/00 - Documentation/Etat_art/tableau_recap_etat_art.xlsx
+++ b/00 - Documentation/Etat_art/tableau_recap_etat_art.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BE5969-9D2C-4A4B-8ACA-D84F87617C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Article</t>
   </si>
@@ -62,12 +62,58 @@
   </si>
   <si>
     <t xml:space="preserve">Algos utilisés : NB (meilleur résultat) ; PART ; SVM (meilleur résultat) ; k-NN. SVM et k-NN ont eu besoin d'optimisation des paramètres gamma, C et du nb de voisin </t>
+  </si>
+  <si>
+    <t>Recognaizing Turns and Other Snowboarding Activities with a gyroscope</t>
+  </si>
+  <si>
+    <t>Analyse de mouvements et de déplacements utilisant des données GPS et gyroscopique. Les données gyroscopiques sont utilisés pour détecter les virages ainsi que 9 autres mouvements de snowboard.</t>
+  </si>
+  <si>
+    <t>Pour le virage il est nécessaire d'avoir la stance du snowboarder et l'état du system (switchou pas)
+Ils n'ont pas combiné les données GPS et gyroscopiques</t>
+  </si>
+  <si>
+    <t>Diagramme UML d'état -&gt; peut être itéressant pr skate
+Détection d'action, de virage, de l'edge utilisé, de la direction prise et de la technique utilisée
+IMU : sample rate 32Hz
+GPS : 10Hz</t>
+  </si>
+  <si>
+    <t>A Method For Outdoor Skateboarding Video Games</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analyse et reconnaissance de figures de skate en temps réel via un jeu vidéo. Ils ont construits/développés le PCB et l'application. </t>
+  </si>
+  <si>
+    <t>Peak Detection sur une window : utilisé pour la détection d'action (mouvement), et ladétection de virage (2 algo différents quand mm mais avec un principe de peak détection)
+Détection de la technique de virage utilisée : Peak détection avec utilisation d'un treshold carving-versus-skidding (nombre de peaks détecté entre deux virages/temps entre deux virage)</t>
+  </si>
+  <si>
+    <t>Capteur mis dans le trucks sous forme de riser pad (plaquette qui surélevve les trucks)
+Utilisation de données d'accélération, gyroscopiques et de pression des pieds sur la planche.
+Pression des pieds = Utile pour savoir si le trick a été mis notamment
+IMU : Sample Rate
+2 capteurs par planche (pour éviter des problèmes de rotation du skate de 180°)
+3 event détectés : ollie, ollie fs 180 et No-event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fenetre d'une taille de 0.5s qui défile 
+Utilisation de : Linear Discriminant Analysis (LDA)
+7 channels de données récupérées : 3 acc, 3 gyr, 1 pression
+"Time scale spectrum" calculé avec Coiflet wavelet
+Treshold detection/ methods if 2 peaks inthe same window
+</t>
+  </si>
+  <si>
+    <t>"Scatter matrix"
+"Shrinkage Method"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -123,14 +169,14 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -411,33 +457,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.08984375" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="33.1796875" customWidth="1"/>
-    <col min="4" max="4" width="37.08984375" customWidth="1"/>
-    <col min="5" max="5" width="32.08984375" customWidth="1"/>
-    <col min="6" max="6" width="21.36328125" customWidth="1"/>
-    <col min="7" max="7" width="11.08984375" customWidth="1"/>
-    <col min="8" max="8" width="13.90625" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="33.21875" customWidth="1"/>
+    <col min="4" max="4" width="37.109375" customWidth="1"/>
+    <col min="5" max="5" width="32.109375" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,145 +506,169 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="232" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>2015</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+    <row r="4" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="217.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/00 - Documentation/Etat_art/tableau_recap_etat_art.xlsx
+++ b/00 - Documentation/Etat_art/tableau_recap_etat_art.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -166,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -177,6 +176,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -460,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -506,7 +508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="5" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -529,45 +531,45 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:7" s="5" customFormat="1" ht="222.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>2010</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="217.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:7" s="5" customFormat="1" ht="273" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>2010</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
         <v>23</v>
       </c>
     </row>

--- a/00 - Documentation/Etat_art/tableau_recap_etat_art.xlsx
+++ b/00 - Documentation/Etat_art/tableau_recap_etat_art.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Article</t>
   </si>
@@ -107,6 +107,52 @@
   <si>
     <t>"Scatter matrix"
 "Shrinkage Method"</t>
+  </si>
+  <si>
+    <t>The classification of skateboarding tricks via Transfer learning pipelines</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reconnaissance de figures de skate en utilisant des </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>transfer pipelines.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Utilisation des données accélérométriques gyroscopiques (MPU6050) 
+Figures testées : Ollie;Kickflip, shoveit, Nollie, fs 180
+Feature &lt;=&gt; images ici -&gt; c'est le role des tranferts pipelines qui extraiait des fetaures 
+Utilisation des 6 données brut et de leur CWT 
+Optimized SVM, avec différents kernek et autres hyper paramètre
+Très bon résultats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SVM
+CWT = plus pratique que fft askip
+</t>
+  </si>
+  <si>
+    <t>CWT
+Transfer pipelines</t>
   </si>
 </sst>
 </file>
@@ -174,11 +220,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -462,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -479,11 +525,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -508,7 +554,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -531,7 +577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="5" customFormat="1" ht="222.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="222.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -552,7 +598,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="5" customFormat="1" ht="273" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="273" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -573,14 +619,26 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="275.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>

--- a/00 - Documentation/Etat_art/tableau_recap_etat_art.xlsx
+++ b/00 - Documentation/Etat_art/tableau_recap_etat_art.xlsx
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t xml:space="preserve">Statistiques : mean ; variance ; asymétrie ; kurtosis. Fréquence : Freq dominante et fenêtre. Features calculés sur les 6 signaux + norme accélération et norme gyro. </t>
-  </si>
-  <si>
-    <t>Détection : Signal accélération segmentée en fenêtres d'1S avec overlap de 0.5S. Calcul de l'énergie pour détecter l'atterrissage. Selection par seuil basé sur les Ollie. Une fois qu'on détecte les temps d'atterrissage, on conserve 1s avant et 0,5s après. Pour les résultats, mesure de SENSIBILITE et SPECIFICITE</t>
   </si>
   <si>
     <t xml:space="preserve">Un algo de détection de présence de figures (P = 94.2%) et 4 méthodes de classification utilisées (P = 97.8%)Preprocessing --&gt; axes x et z sont inversés pour goofy / regular. Pour la classification, ils n'ont considéré que les signaux où ils savaient qu'il y avait une figure. Les Faux Positifs de la détection n'ont pas été considéré. </t>
@@ -153,6 +150,33 @@
   <si>
     <t>CWT
 Transfer pipelines</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Détection : Signal accélération segmentée en fenêtres d'1S avec overlap de 0.5S. Calcul de l'énergie pour détecter l'atterrissage. Selection par seuil basé sur les Ollie. Une fois qu'on détecte les temps d'atterrissage, on conserve 1s avant et 0,5s après =&gt; figure = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.5s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+ Pour les résultats, mesure de SENSIBILITE et SPECIFICITE</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -508,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -554,7 +578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -565,78 +589,78 @@
         <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1" ht="222.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3">
         <v>2010</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1" ht="273" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3">
         <v>2010</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1" ht="275.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="3">
         <v>2021</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="G6" s="3"/>
     </row>

--- a/00 - Documentation/Etat_art/tableau_recap_etat_art.xlsx
+++ b/00 - Documentation/Etat_art/tableau_recap_etat_art.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDC5AF6-90A6-4566-BBEC-FE001CFF5429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Article</t>
   </si>
@@ -178,11 +179,61 @@
  Pour les résultats, mesure de SENSIBILITE et SPECIFICITE</t>
     </r>
   </si>
+  <si>
+    <t>Machine and deep learning for sport-specific movement recognition: a systematic review of model development and performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sur 52 études (2 spécifiques au skate), 29 utilisaient des IMU, 22 vision-based et une combinait les deux. L'usage de l'IMU dépend forcément du sport étudié… </t>
+  </si>
+  <si>
+    <t>Pour traiter Goofy / Régular les études traitées inversent les axes des signaux. Detection methods included thresholding (n = 5), windowing segmenting (n = 4), and a combination of threshold and windowing techniques (n = 5)</t>
+  </si>
+  <si>
+    <t>Signal feature extraction techniques were reported in 80% of the studies, with the number of feature parameters in a vector ranging from a vector of normalised X, Y, Z accelerometer signals (Ó Conaire et al., 2010) to 240 features (M. A. O’Reilly et al., 2017a). Further feature selection to reduce the dimensionality of the feature vector was used in 11 studies.</t>
+  </si>
+  <si>
+    <t>Development of a skateboarding trick classifier using accelerometry and machine learning</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Article qui fait un état de l'art sur les techniques de ML / DL qui permettent la reconnaissance automatique de mouvement dans le sport. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Article pas hyper pertinent… </t>
+    </r>
+  </si>
+  <si>
+    <t>Article qui fait un état de l'art sur l'utilisation d'IMU pour le skate et qui développe une nouvelle méthode de classification avec du ML + NN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etat de l'art utilisé pour avoir 181 figures réparties en 5 classes.
+Ils font des mesures de cross-correlation entre deux signaux et la mesure du max de correlation permet de déterminer la classe dans laquelle ranger la figure. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pour la détection d'evt : fenêtrage avec threshold (supérieur à 5g = début d'evt). 
+Le classifieur est un réseau de neurones à propagation avant avec 3 couches et un algo de ML supervisé. Erreur inférieure à 0,05%
+Avec les mesures de cross-correlation, ils étudient quelle classe est la plus susceptible de collecter des mauvaises données. 
+</t>
+  </si>
+  <si>
+    <t>L'exploitation de l'axe Z semble être le plus discriminant (mesure de cross-correlation). Les erreurs mesurées (7.2% en exploitant les trois axes sont dues aux fortes similarités entre différentes classes --&gt; même type de figure)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'exploitation des trois axes ne permet pas d'avoir une performance optimale vs EDL (à peu près similaire) mais on utliise moins de dimension donc moins de temps de calcul --&gt; résultats en temsp réel. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -235,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -249,6 +300,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -529,33 +583,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="54" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.109375" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" customWidth="1"/>
-    <col min="3" max="3" width="33.21875" customWidth="1"/>
-    <col min="4" max="4" width="37.109375" customWidth="1"/>
-    <col min="5" max="5" width="32.109375" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" customWidth="1"/>
-    <col min="7" max="7" width="20.21875" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="28.08984375" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" customWidth="1"/>
+    <col min="3" max="3" width="33.1796875" customWidth="1"/>
+    <col min="4" max="4" width="37.08984375" customWidth="1"/>
+    <col min="5" max="5" width="32.08984375" customWidth="1"/>
+    <col min="6" max="6" width="21.36328125" customWidth="1"/>
+    <col min="7" max="7" width="20.1796875" customWidth="1"/>
+    <col min="8" max="8" width="13.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,7 +632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="275.39999999999998" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -601,7 +655,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="222.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="275.39999999999998" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -622,7 +676,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="273" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="273" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -643,7 +697,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="275.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="275.39999999999998" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
@@ -664,25 +718,51 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="275.39999999999998" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="275.39999999999998" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -691,7 +771,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -700,7 +780,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -709,7 +789,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -718,7 +798,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -727,7 +807,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -736,7 +816,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -745,7 +825,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>

--- a/00 - Documentation/Etat_art/tableau_recap_etat_art.xlsx
+++ b/00 - Documentation/Etat_art/tableau_recap_etat_art.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDC5AF6-90A6-4566-BBEC-FE001CFF5429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -233,7 +232,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -298,11 +297,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -583,33 +582,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="54" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.08984375" customWidth="1"/>
-    <col min="2" max="2" width="16.1796875" customWidth="1"/>
-    <col min="3" max="3" width="33.1796875" customWidth="1"/>
-    <col min="4" max="4" width="37.08984375" customWidth="1"/>
-    <col min="5" max="5" width="32.08984375" customWidth="1"/>
-    <col min="6" max="6" width="21.36328125" customWidth="1"/>
-    <col min="7" max="7" width="20.1796875" customWidth="1"/>
-    <col min="8" max="8" width="13.90625" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="33.21875" customWidth="1"/>
+    <col min="4" max="4" width="37.109375" customWidth="1"/>
+    <col min="5" max="5" width="32.109375" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E1" s="5" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -632,7 +631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="275.39999999999998" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="275.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -655,7 +654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="275.39999999999998" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="275.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -676,7 +675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="273" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="273" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -697,7 +696,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="275.39999999999998" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="275.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
@@ -718,7 +717,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="275.39999999999998" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="275.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -739,7 +738,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="275.39999999999998" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="275.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -755,14 +754,14 @@
       <c r="E8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>38</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -771,7 +770,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -780,7 +779,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -789,7 +788,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -798,7 +797,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -807,7 +806,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -816,7 +815,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -825,7 +824,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>

--- a/00 - Documentation/Etat_art/tableau_recap_etat_art.xlsx
+++ b/00 - Documentation/Etat_art/tableau_recap_etat_art.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B578FB-9FA5-4718-BF00-BB140CA5CC09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -52,9 +53,6 @@
   </si>
   <si>
     <t xml:space="preserve">Statistiques : mean ; variance ; asymétrie ; kurtosis. Fréquence : Freq dominante et fenêtre. Features calculés sur les 6 signaux + norme accélération et norme gyro. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Un algo de détection de présence de figures (P = 94.2%) et 4 méthodes de classification utilisées (P = 97.8%)Preprocessing --&gt; axes x et z sont inversés pour goofy / regular. Pour la classification, ils n'ont considéré que les signaux où ils savaient qu'il y avait une figure. Les Faux Positifs de la détection n'ont pas été considéré. </t>
   </si>
   <si>
     <t xml:space="preserve">Algos utilisés : NB (meilleur résultat) ; PART ; SVM (meilleur résultat) ; k-NN. SVM et k-NN ont eu besoin d'optimisation des paramètres gamma, C et du nb de voisin </t>
@@ -228,11 +226,14 @@
   <si>
     <t xml:space="preserve">L'exploitation des trois axes ne permet pas d'avoir une performance optimale vs EDL (à peu près similaire) mais on utliise moins de dimension donc moins de temps de calcul --&gt; résultats en temsp réel. </t>
   </si>
+  <si>
+    <t>Un algorithme pour la détection et un algorithme pour la classification.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -582,33 +583,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.109375" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" customWidth="1"/>
-    <col min="3" max="3" width="33.21875" customWidth="1"/>
-    <col min="4" max="4" width="37.109375" customWidth="1"/>
-    <col min="5" max="5" width="32.109375" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" customWidth="1"/>
-    <col min="7" max="7" width="20.21875" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="28.08984375" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" customWidth="1"/>
+    <col min="3" max="3" width="33.1796875" customWidth="1"/>
+    <col min="4" max="4" width="37.08984375" customWidth="1"/>
+    <col min="5" max="5" width="32.08984375" customWidth="1"/>
+    <col min="6" max="6" width="21.36328125" customWidth="1"/>
+    <col min="7" max="7" width="20.1796875" customWidth="1"/>
+    <col min="8" max="8" width="13.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -631,7 +632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="275.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="275.39999999999998" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -642,126 +643,126 @@
         <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="275.39999999999998" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="275.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="B4" s="3">
         <v>2010</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="273" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="273" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3">
         <v>2010</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="275.39999999999998" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="275.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="B6" s="3">
         <v>2021</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="275.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="275.39999999999998" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="3">
         <v>2018</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="275.39999999999998" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="275.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="B8" s="3">
         <v>2017</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -770,7 +771,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -779,7 +780,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -788,7 +789,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -797,7 +798,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -806,7 +807,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -815,7 +816,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -824,7 +825,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
